--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.27555233333333</v>
+        <v>8.492441999999999</v>
       </c>
       <c r="H2">
-        <v>54.826657</v>
+        <v>25.477326</v>
       </c>
       <c r="I2">
-        <v>0.09285905236529968</v>
+        <v>0.02820004368654089</v>
       </c>
       <c r="J2">
-        <v>0.09351170995335455</v>
+        <v>0.02834773999741953</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.10860966666667</v>
+        <v>38.99424333333334</v>
       </c>
       <c r="N2">
-        <v>120.325829</v>
+        <v>116.98273</v>
       </c>
       <c r="O2">
-        <v>0.1618614946346038</v>
+        <v>0.1274814490568594</v>
       </c>
       <c r="P2">
-        <v>0.1634292560317296</v>
+        <v>0.1287332256669768</v>
       </c>
       <c r="Q2">
-        <v>733.0069949804059</v>
+        <v>331.15634984222</v>
       </c>
       <c r="R2">
-        <v>6597.062954823653</v>
+        <v>2980.40714857998</v>
       </c>
       <c r="S2">
-        <v>0.01503030500620035</v>
+        <v>0.003594982432626973</v>
       </c>
       <c r="T2">
-        <v>0.01528254918793161</v>
+        <v>0.003649296010236592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.27555233333333</v>
+        <v>8.492441999999999</v>
       </c>
       <c r="H3">
-        <v>54.826657</v>
+        <v>25.477326</v>
       </c>
       <c r="I3">
-        <v>0.09285905236529968</v>
+        <v>0.02820004368654089</v>
       </c>
       <c r="J3">
-        <v>0.09351170995335455</v>
+        <v>0.02834773999741953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.55298433333333</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N3">
-        <v>76.658953</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O3">
-        <v>0.1031211071872511</v>
+        <v>0.08353877885754318</v>
       </c>
       <c r="P3">
-        <v>0.104119919730296</v>
+        <v>0.08435906988957403</v>
       </c>
       <c r="Q3">
-        <v>466.9949024566801</v>
+        <v>217.007237377742</v>
       </c>
       <c r="R3">
-        <v>4202.954122110121</v>
+        <v>1953.065136399678</v>
       </c>
       <c r="S3">
-        <v>0.009575728292268632</v>
+        <v>0.002355797213302997</v>
       </c>
       <c r="T3">
-        <v>0.009736431734185997</v>
+        <v>0.002391388979653787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.27555233333333</v>
+        <v>8.492441999999999</v>
       </c>
       <c r="H4">
-        <v>54.826657</v>
+        <v>25.477326</v>
       </c>
       <c r="I4">
-        <v>0.09285905236529968</v>
+        <v>0.02820004368654089</v>
       </c>
       <c r="J4">
-        <v>0.09351170995335455</v>
+        <v>0.02834773999741953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.27444333333334</v>
+        <v>80.38183099999999</v>
       </c>
       <c r="N4">
-        <v>279.82333</v>
+        <v>241.145493</v>
       </c>
       <c r="O4">
-        <v>0.3764164585762545</v>
+        <v>0.2627873095556134</v>
       </c>
       <c r="P4">
-        <v>0.3800623608603698</v>
+        <v>0.2653676928974334</v>
       </c>
       <c r="Q4">
-        <v>1704.641970500868</v>
+        <v>682.6380376213018</v>
       </c>
       <c r="R4">
-        <v>15341.77773450781</v>
+        <v>6143.742338591717</v>
       </c>
       <c r="S4">
-        <v>0.03495367563809307</v>
+        <v>0.007410613609736843</v>
       </c>
       <c r="T4">
-        <v>0.03554028125296207</v>
+        <v>0.007522574361971514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.27555233333333</v>
+        <v>8.492441999999999</v>
       </c>
       <c r="H5">
-        <v>54.826657</v>
+        <v>25.477326</v>
       </c>
       <c r="I5">
-        <v>0.09285905236529968</v>
+        <v>0.02820004368654089</v>
       </c>
       <c r="J5">
-        <v>0.09351170995335455</v>
+        <v>0.02834773999741953</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.131247</v>
+        <v>8.923000999999999</v>
       </c>
       <c r="N5">
-        <v>14.262494</v>
+        <v>17.846002</v>
       </c>
       <c r="O5">
-        <v>0.0287787162811536</v>
+        <v>0.02917141096166431</v>
       </c>
       <c r="P5">
-        <v>0.01937164117586929</v>
+        <v>0.01963856889576196</v>
       </c>
       <c r="Q5">
-        <v>130.3274777504263</v>
+        <v>75.77806845844198</v>
       </c>
       <c r="R5">
-        <v>781.9648665025579</v>
+        <v>454.6684107506519</v>
       </c>
       <c r="S5">
-        <v>0.002672364322157745</v>
+        <v>0.0008226350635169716</v>
       </c>
       <c r="T5">
-        <v>0.001811475290958349</v>
+        <v>0.0005567090449784702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.27555233333333</v>
+        <v>8.492441999999999</v>
       </c>
       <c r="H6">
-        <v>54.826657</v>
+        <v>25.477326</v>
       </c>
       <c r="I6">
-        <v>0.09285905236529968</v>
+        <v>0.02820004368654089</v>
       </c>
       <c r="J6">
-        <v>0.09351170995335455</v>
+        <v>0.02834773999741953</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.72858433333334</v>
+        <v>152.029648</v>
       </c>
       <c r="N6">
-        <v>245.185753</v>
+        <v>456.088944</v>
       </c>
       <c r="O6">
-        <v>0.329822223320737</v>
+        <v>0.4970210515683195</v>
       </c>
       <c r="P6">
-        <v>0.3330168222017353</v>
+        <v>0.5019014426502539</v>
       </c>
       <c r="Q6">
-        <v>1493.63502011308</v>
+        <v>1291.102967920416</v>
       </c>
       <c r="R6">
-        <v>13442.71518101772</v>
+        <v>11619.92671128374</v>
       </c>
       <c r="S6">
-        <v>0.03062697910657988</v>
+        <v>0.01401601536735711</v>
       </c>
       <c r="T6">
-        <v>0.03114097248731652</v>
+        <v>0.01422777160057917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.055956</v>
       </c>
       <c r="I7">
-        <v>0.01533793118960089</v>
+        <v>0.01002375032699241</v>
       </c>
       <c r="J7">
-        <v>0.01544573346542615</v>
+        <v>0.01007624921532469</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.10860966666667</v>
+        <v>38.99424333333334</v>
       </c>
       <c r="N7">
-        <v>120.325829</v>
+        <v>116.98273</v>
       </c>
       <c r="O7">
-        <v>0.1618614946346038</v>
+        <v>0.1274814490568594</v>
       </c>
       <c r="P7">
-        <v>0.1634292560317296</v>
+        <v>0.1287332256669768</v>
       </c>
       <c r="Q7">
-        <v>121.0739347875027</v>
+        <v>117.7100506266533</v>
       </c>
       <c r="R7">
-        <v>1089.665413087524</v>
+        <v>1059.39045563988</v>
       </c>
       <c r="S7">
-        <v>0.002482620466951507</v>
+        <v>0.001277842216669161</v>
       </c>
       <c r="T7">
-        <v>0.002524284729118984</v>
+        <v>0.001297148064113091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.055956</v>
       </c>
       <c r="I8">
-        <v>0.01533793118960089</v>
+        <v>0.01002375032699241</v>
       </c>
       <c r="J8">
-        <v>0.01544573346542615</v>
+        <v>0.01007624921532469</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.55298433333333</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N8">
-        <v>76.658953</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O8">
-        <v>0.1031211071872511</v>
+        <v>0.08353877885754318</v>
       </c>
       <c r="P8">
-        <v>0.104119919730296</v>
+        <v>0.08435906988957403</v>
       </c>
       <c r="Q8">
-        <v>77.13556726378532</v>
+        <v>77.13556726378535</v>
       </c>
       <c r="R8">
-        <v>694.220105374068</v>
+        <v>694.2201053740681</v>
       </c>
       <c r="S8">
-        <v>0.001581664446233515</v>
+        <v>0.000837371861889845</v>
       </c>
       <c r="T8">
-        <v>0.001608208528595718</v>
+        <v>0.0008500230117803412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.055956</v>
       </c>
       <c r="I9">
-        <v>0.01533793118960089</v>
+        <v>0.01002375032699241</v>
       </c>
       <c r="J9">
-        <v>0.01544573346542615</v>
+        <v>0.01007624921532469</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>93.27444333333334</v>
+        <v>80.38183099999999</v>
       </c>
       <c r="N9">
-        <v>279.82333</v>
+        <v>241.145493</v>
       </c>
       <c r="O9">
-        <v>0.3764164585762545</v>
+        <v>0.2627873095556134</v>
       </c>
       <c r="P9">
-        <v>0.3800623608603698</v>
+        <v>0.2653676928974334</v>
       </c>
       <c r="Q9">
-        <v>281.5630849170533</v>
+        <v>242.644774911812</v>
       </c>
       <c r="R9">
-        <v>2534.06776425348</v>
+        <v>2183.802974206308</v>
       </c>
       <c r="S9">
-        <v>0.005773449740275844</v>
+        <v>0.002634114380087535</v>
       </c>
       <c r="T9">
-        <v>0.005870341926089884</v>
+        <v>0.002673911007330287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.055956</v>
       </c>
       <c r="I10">
-        <v>0.01533793118960089</v>
+        <v>0.01002375032699241</v>
       </c>
       <c r="J10">
-        <v>0.01544573346542615</v>
+        <v>0.01007624921532469</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.131247</v>
+        <v>8.923000999999999</v>
       </c>
       <c r="N10">
-        <v>14.262494</v>
+        <v>17.846002</v>
       </c>
       <c r="O10">
-        <v>0.0287787162811536</v>
+        <v>0.02917141096166431</v>
       </c>
       <c r="P10">
-        <v>0.01937164117586929</v>
+        <v>0.01963856889576196</v>
       </c>
       <c r="Q10">
-        <v>21.526753019044</v>
+        <v>26.935434814652</v>
       </c>
       <c r="R10">
-        <v>129.160518114264</v>
+        <v>161.612608887912</v>
       </c>
       <c r="S10">
-        <v>0.0004414059700453807</v>
+        <v>0.0002924069401658126</v>
       </c>
       <c r="T10">
-        <v>0.0002992092063903515</v>
+        <v>0.0001978831144260213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.055956</v>
       </c>
       <c r="I11">
-        <v>0.01533793118960089</v>
+        <v>0.01002375032699241</v>
       </c>
       <c r="J11">
-        <v>0.01544573346542615</v>
+        <v>0.01007624921532469</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.72858433333334</v>
+        <v>152.029648</v>
       </c>
       <c r="N11">
-        <v>245.185753</v>
+        <v>456.088944</v>
       </c>
       <c r="O11">
-        <v>0.329822223320737</v>
+        <v>0.4970210515683195</v>
       </c>
       <c r="P11">
-        <v>0.3330168222017353</v>
+        <v>0.5019014426502539</v>
       </c>
       <c r="Q11">
-        <v>246.7101545549854</v>
+        <v>458.9246009944959</v>
       </c>
       <c r="R11">
-        <v>2220.391390994868</v>
+        <v>4130.321408950464</v>
       </c>
       <c r="S11">
-        <v>0.00505879056609464</v>
+        <v>0.004982014928180054</v>
       </c>
       <c r="T11">
-        <v>0.005143689075231214</v>
+        <v>0.005057284017674952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.676348</v>
+        <v>119.712288</v>
       </c>
       <c r="H12">
-        <v>308.029044</v>
+        <v>359.136864</v>
       </c>
       <c r="I12">
-        <v>0.5217039792674063</v>
+        <v>0.3975171984001499</v>
       </c>
       <c r="J12">
-        <v>0.525370762980079</v>
+        <v>0.3995991747391629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.10860966666667</v>
+        <v>38.99424333333334</v>
       </c>
       <c r="N12">
-        <v>120.325829</v>
+        <v>116.98273</v>
       </c>
       <c r="O12">
-        <v>0.1618614946346038</v>
+        <v>0.1274814490568594</v>
       </c>
       <c r="P12">
-        <v>0.1634292560317296</v>
+        <v>0.1287332256669768</v>
       </c>
       <c r="Q12">
-        <v>4118.205563930831</v>
+        <v>4668.090088262081</v>
       </c>
       <c r="R12">
-        <v>37063.85007537748</v>
+        <v>42012.81079435872</v>
       </c>
       <c r="S12">
-        <v>0.08444378584104276</v>
+        <v>0.0506760684770742</v>
       </c>
       <c r="T12">
-        <v>0.08586095293465644</v>
+        <v>0.05144169073803435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.676348</v>
+        <v>119.712288</v>
       </c>
       <c r="H13">
-        <v>308.029044</v>
+        <v>359.136864</v>
       </c>
       <c r="I13">
-        <v>0.5217039792674063</v>
+        <v>0.3975171984001499</v>
       </c>
       <c r="J13">
-        <v>0.525370762980079</v>
+        <v>0.3995991747391629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.55298433333333</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N13">
-        <v>76.658953</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O13">
-        <v>0.1031211071872511</v>
+        <v>0.08353877885754318</v>
       </c>
       <c r="P13">
-        <v>0.104119919730296</v>
+        <v>0.08435906988957403</v>
       </c>
       <c r="Q13">
-        <v>2623.687111847881</v>
+        <v>3059.006219771489</v>
       </c>
       <c r="R13">
-        <v>23613.18400663093</v>
+        <v>27531.0559779434</v>
       </c>
       <c r="S13">
-        <v>0.05379869196604963</v>
+        <v>0.03320810132922025</v>
       </c>
       <c r="T13">
-        <v>0.0547015616701302</v>
+        <v>0.03370981470963715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.676348</v>
+        <v>119.712288</v>
       </c>
       <c r="H14">
-        <v>308.029044</v>
+        <v>359.136864</v>
       </c>
       <c r="I14">
-        <v>0.5217039792674063</v>
+        <v>0.3975171984001499</v>
       </c>
       <c r="J14">
-        <v>0.525370762980079</v>
+        <v>0.3995991747391629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>93.27444333333334</v>
+        <v>80.38183099999999</v>
       </c>
       <c r="N14">
-        <v>279.82333</v>
+        <v>241.145493</v>
       </c>
       <c r="O14">
-        <v>0.3764164585762545</v>
+        <v>0.2627873095556134</v>
       </c>
       <c r="P14">
-        <v>0.3800623608603698</v>
+        <v>0.2653676928974334</v>
       </c>
       <c r="Q14">
-        <v>9577.079203199613</v>
+        <v>9622.692902639326</v>
       </c>
       <c r="R14">
-        <v>86193.71282879652</v>
+        <v>86604.23612375394</v>
       </c>
       <c r="S14">
-        <v>0.1963779643009768</v>
+        <v>0.1044624750696604</v>
       </c>
       <c r="T14">
-        <v>0.1996736525052226</v>
+        <v>0.10604071108425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.676348</v>
+        <v>119.712288</v>
       </c>
       <c r="H15">
-        <v>308.029044</v>
+        <v>359.136864</v>
       </c>
       <c r="I15">
-        <v>0.5217039792674063</v>
+        <v>0.3975171984001499</v>
       </c>
       <c r="J15">
-        <v>0.525370762980079</v>
+        <v>0.3995991747391629</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.131247</v>
+        <v>8.923000999999999</v>
       </c>
       <c r="N15">
-        <v>14.262494</v>
+        <v>17.846002</v>
       </c>
       <c r="O15">
-        <v>0.0287787162811536</v>
+        <v>0.02917141096166431</v>
       </c>
       <c r="P15">
-        <v>0.01937164117586929</v>
+        <v>0.01963856889576196</v>
       </c>
       <c r="Q15">
-        <v>732.210398645956</v>
+        <v>1068.192865536288</v>
       </c>
       <c r="R15">
-        <v>4393.262391875736</v>
+        <v>6409.157193217728</v>
       </c>
       <c r="S15">
-        <v>0.01501397080208553</v>
+        <v>0.01159613755886022</v>
       </c>
       <c r="T15">
-        <v>0.01017729390474276</v>
+        <v>0.007847555923804671</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.676348</v>
+        <v>119.712288</v>
       </c>
       <c r="H16">
-        <v>308.029044</v>
+        <v>359.136864</v>
       </c>
       <c r="I16">
-        <v>0.5217039792674063</v>
+        <v>0.3975171984001499</v>
       </c>
       <c r="J16">
-        <v>0.525370762980079</v>
+        <v>0.3995991747391629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.72858433333334</v>
+        <v>152.029648</v>
       </c>
       <c r="N16">
-        <v>245.185753</v>
+        <v>456.088944</v>
       </c>
       <c r="O16">
-        <v>0.329822223320737</v>
+        <v>0.4970210515683195</v>
       </c>
       <c r="P16">
-        <v>0.3330168222017353</v>
+        <v>0.5019014426502539</v>
       </c>
       <c r="Q16">
-        <v>8391.592566556683</v>
+        <v>18199.81700591462</v>
       </c>
       <c r="R16">
-        <v>75524.33309901014</v>
+        <v>163798.3530532316</v>
       </c>
       <c r="S16">
-        <v>0.1720695663572516</v>
+        <v>0.1975744159653348</v>
       </c>
       <c r="T16">
-        <v>0.174957301965327</v>
+        <v>0.2005594022834368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.120851</v>
+        <v>4.707120000000001</v>
       </c>
       <c r="H17">
-        <v>8.241702</v>
+        <v>9.414240000000001</v>
       </c>
       <c r="I17">
-        <v>0.02093826286719967</v>
+        <v>0.01563048527594188</v>
       </c>
       <c r="J17">
-        <v>0.01405695129188676</v>
+        <v>0.01047489943777094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.10860966666667</v>
+        <v>38.99424333333334</v>
       </c>
       <c r="N17">
-        <v>120.325829</v>
+        <v>116.98273</v>
       </c>
       <c r="O17">
-        <v>0.1618614946346038</v>
+        <v>0.1274814490568594</v>
       </c>
       <c r="P17">
-        <v>0.1634292560317296</v>
+        <v>0.1287332256669768</v>
       </c>
       <c r="Q17">
-        <v>165.281604253493</v>
+        <v>183.5505826792</v>
       </c>
       <c r="R17">
-        <v>991.689625520958</v>
+        <v>1101.3034960752</v>
       </c>
       <c r="S17">
-        <v>0.003389098522737164</v>
+        <v>0.001992596912438976</v>
       </c>
       <c r="T17">
-        <v>0.002297317091707312</v>
+        <v>0.001348467593161454</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.120851</v>
+        <v>4.707120000000001</v>
       </c>
       <c r="H18">
-        <v>8.241702</v>
+        <v>9.414240000000001</v>
       </c>
       <c r="I18">
-        <v>0.02093826286719967</v>
+        <v>0.01563048527594188</v>
       </c>
       <c r="J18">
-        <v>0.01405695129188676</v>
+        <v>0.01047489943777094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.55298433333333</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N18">
-        <v>76.658953</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O18">
-        <v>0.1031211071872511</v>
+        <v>0.08353877885754318</v>
       </c>
       <c r="P18">
-        <v>0.104119919730296</v>
+        <v>0.08435906988957403</v>
       </c>
       <c r="Q18">
-        <v>105.300041043001</v>
+        <v>120.28096361512</v>
       </c>
       <c r="R18">
-        <v>631.8002462580059</v>
+        <v>721.6857816907202</v>
       </c>
       <c r="S18">
-        <v>0.002159176849443336</v>
+        <v>0.001305751652902994</v>
       </c>
       <c r="T18">
-        <v>0.00146360864016393</v>
+        <v>0.0008836527737571782</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.120851</v>
+        <v>4.707120000000001</v>
       </c>
       <c r="H19">
-        <v>8.241702</v>
+        <v>9.414240000000001</v>
       </c>
       <c r="I19">
-        <v>0.02093826286719967</v>
+        <v>0.01563048527594188</v>
       </c>
       <c r="J19">
-        <v>0.01405695129188676</v>
+        <v>0.01047489943777094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>93.27444333333334</v>
+        <v>80.38183099999999</v>
       </c>
       <c r="N19">
-        <v>279.82333</v>
+        <v>241.145493</v>
       </c>
       <c r="O19">
-        <v>0.3764164585762545</v>
+        <v>0.2627873095556134</v>
       </c>
       <c r="P19">
-        <v>0.3800623608603698</v>
+        <v>0.2653676928974334</v>
       </c>
       <c r="Q19">
-        <v>384.37008308461</v>
+        <v>378.36692433672</v>
       </c>
       <c r="R19">
-        <v>2306.22049850766</v>
+        <v>2270.20154602032</v>
       </c>
       <c r="S19">
-        <v>0.007881506757209991</v>
+        <v>0.004107493172713396</v>
       </c>
       <c r="T19">
-        <v>0.005342518094493706</v>
+        <v>0.002779699897133896</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.120851</v>
+        <v>4.707120000000001</v>
       </c>
       <c r="H20">
-        <v>8.241702</v>
+        <v>9.414240000000001</v>
       </c>
       <c r="I20">
-        <v>0.02093826286719967</v>
+        <v>0.01563048527594188</v>
       </c>
       <c r="J20">
-        <v>0.01405695129188676</v>
+        <v>0.01047489943777094</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.131247</v>
+        <v>8.923000999999999</v>
       </c>
       <c r="N20">
-        <v>14.262494</v>
+        <v>17.846002</v>
       </c>
       <c r="O20">
-        <v>0.0287787162811536</v>
+        <v>0.02917141096166431</v>
       </c>
       <c r="P20">
-        <v>0.01937164117586929</v>
+        <v>0.01963856889576196</v>
       </c>
       <c r="Q20">
-        <v>29.386806331197</v>
+        <v>42.00163646712</v>
       </c>
       <c r="R20">
-        <v>117.547225324788</v>
+        <v>168.00654586848</v>
       </c>
       <c r="S20">
-        <v>0.0006025763264753529</v>
+        <v>0.0004559633095147436</v>
       </c>
       <c r="T20">
-        <v>0.0002723062164531025</v>
+        <v>0.0002057120342848427</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.120851</v>
+        <v>4.707120000000001</v>
       </c>
       <c r="H21">
-        <v>8.241702</v>
+        <v>9.414240000000001</v>
       </c>
       <c r="I21">
-        <v>0.02093826286719967</v>
+        <v>0.01563048527594188</v>
       </c>
       <c r="J21">
-        <v>0.01405695129188676</v>
+        <v>0.01047489943777094</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.72858433333334</v>
+        <v>152.029648</v>
       </c>
       <c r="N21">
-        <v>245.185753</v>
+        <v>456.088944</v>
       </c>
       <c r="O21">
-        <v>0.329822223320737</v>
+        <v>0.4970210515683195</v>
       </c>
       <c r="P21">
-        <v>0.3330168222017353</v>
+        <v>0.5019014426502539</v>
       </c>
       <c r="Q21">
-        <v>336.7913184786011</v>
+        <v>715.62179669376</v>
       </c>
       <c r="R21">
-        <v>2020.747910871606</v>
+        <v>4293.73078016256</v>
       </c>
       <c r="S21">
-        <v>0.006905904411333822</v>
+        <v>0.007768680228371769</v>
       </c>
       <c r="T21">
-        <v>0.004681201249068706</v>
+        <v>0.005257367139433567</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>68.71819000000001</v>
+        <v>165.219457</v>
       </c>
       <c r="H22">
-        <v>206.15457</v>
+        <v>495.658371</v>
       </c>
       <c r="I22">
-        <v>0.3491607743104935</v>
+        <v>0.5486285223103751</v>
       </c>
       <c r="J22">
-        <v>0.3516148423092536</v>
+        <v>0.551501936610322</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.10860966666667</v>
+        <v>38.99424333333334</v>
       </c>
       <c r="N22">
-        <v>120.325829</v>
+        <v>116.98273</v>
       </c>
       <c r="O22">
-        <v>0.1618614946346038</v>
+        <v>0.1274814490568594</v>
       </c>
       <c r="P22">
-        <v>0.1634292560317296</v>
+        <v>0.1287332256669768</v>
       </c>
       <c r="Q22">
-        <v>2756.191059709837</v>
+        <v>6442.607709659204</v>
       </c>
       <c r="R22">
-        <v>24805.71953738853</v>
+        <v>57983.46938693283</v>
       </c>
       <c r="S22">
-        <v>0.05651568479767206</v>
+        <v>0.06993995901805014</v>
       </c>
       <c r="T22">
-        <v>0.05746415208831521</v>
+        <v>0.0709966232614313</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>68.71819000000001</v>
+        <v>165.219457</v>
       </c>
       <c r="H23">
-        <v>206.15457</v>
+        <v>495.658371</v>
       </c>
       <c r="I23">
-        <v>0.3491607743104935</v>
+        <v>0.5486285223103751</v>
       </c>
       <c r="J23">
-        <v>0.3516148423092536</v>
+        <v>0.551501936610322</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.55298433333333</v>
+        <v>25.55298433333334</v>
       </c>
       <c r="N23">
-        <v>76.658953</v>
+        <v>76.65895300000001</v>
       </c>
       <c r="O23">
-        <v>0.1031211071872511</v>
+        <v>0.08353877885754318</v>
       </c>
       <c r="P23">
-        <v>0.104119919730296</v>
+        <v>0.08435906988957403</v>
       </c>
       <c r="Q23">
-        <v>1755.954832485023</v>
+        <v>4221.850196282841</v>
       </c>
       <c r="R23">
-        <v>15803.59349236521</v>
+        <v>37996.65176654557</v>
       </c>
       <c r="S23">
-        <v>0.03600584563325599</v>
+        <v>0.04583175680022712</v>
       </c>
       <c r="T23">
-        <v>0.03661010915722017</v>
+        <v>0.04652419041474558</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>68.71819000000001</v>
+        <v>165.219457</v>
       </c>
       <c r="H24">
-        <v>206.15457</v>
+        <v>495.658371</v>
       </c>
       <c r="I24">
-        <v>0.3491607743104935</v>
+        <v>0.5486285223103751</v>
       </c>
       <c r="J24">
-        <v>0.3516148423092536</v>
+        <v>0.551501936610322</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>93.27444333333334</v>
+        <v>80.38183099999999</v>
       </c>
       <c r="N24">
-        <v>279.82333</v>
+        <v>241.145493</v>
       </c>
       <c r="O24">
-        <v>0.3764164585762545</v>
+        <v>0.2627873095556134</v>
       </c>
       <c r="P24">
-        <v>0.3800623608603698</v>
+        <v>0.2653676928974334</v>
       </c>
       <c r="Q24">
-        <v>6409.650919124234</v>
+        <v>13280.64247048577</v>
       </c>
       <c r="R24">
-        <v>57686.85827211811</v>
+        <v>119525.7822343719</v>
       </c>
       <c r="S24">
-        <v>0.1314298621396988</v>
+        <v>0.1441726133234153</v>
       </c>
       <c r="T24">
-        <v>0.1336355670816015</v>
+        <v>0.1463507965467477</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>68.71819000000001</v>
+        <v>165.219457</v>
       </c>
       <c r="H25">
-        <v>206.15457</v>
+        <v>495.658371</v>
       </c>
       <c r="I25">
-        <v>0.3491607743104935</v>
+        <v>0.5486285223103751</v>
       </c>
       <c r="J25">
-        <v>0.3516148423092536</v>
+        <v>0.551501936610322</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.131247</v>
+        <v>8.923000999999999</v>
       </c>
       <c r="N25">
-        <v>14.262494</v>
+        <v>17.846002</v>
       </c>
       <c r="O25">
-        <v>0.0287787162811536</v>
+        <v>0.02917141096166431</v>
       </c>
       <c r="P25">
-        <v>0.01937164117586929</v>
+        <v>0.01963856889576196</v>
       </c>
       <c r="Q25">
-        <v>490.04638628293</v>
+        <v>1474.253380030457</v>
       </c>
       <c r="R25">
-        <v>2940.27831769758</v>
+        <v>8845.520280182742</v>
       </c>
       <c r="S25">
-        <v>0.0100483988603896</v>
+        <v>0.01600426808960657</v>
       </c>
       <c r="T25">
-        <v>0.006811356557324723</v>
+        <v>0.01083070877826795</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>68.71819000000001</v>
+        <v>165.219457</v>
       </c>
       <c r="H26">
-        <v>206.15457</v>
+        <v>495.658371</v>
       </c>
       <c r="I26">
-        <v>0.3491607743104935</v>
+        <v>0.5486285223103751</v>
       </c>
       <c r="J26">
-        <v>0.3516148423092536</v>
+        <v>0.551501936610322</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.72858433333334</v>
+        <v>152.029648</v>
       </c>
       <c r="N26">
-        <v>245.185753</v>
+        <v>456.088944</v>
       </c>
       <c r="O26">
-        <v>0.329822223320737</v>
+        <v>0.4970210515683195</v>
       </c>
       <c r="P26">
-        <v>0.3330168222017353</v>
+        <v>0.5019014426502539</v>
       </c>
       <c r="Q26">
-        <v>5616.240386649025</v>
+        <v>25118.25589046113</v>
       </c>
       <c r="R26">
-        <v>50546.16347984123</v>
+        <v>226064.3030141502</v>
       </c>
       <c r="S26">
-        <v>0.115160982879477</v>
+        <v>0.2726799250790759</v>
       </c>
       <c r="T26">
-        <v>0.1170936574247919</v>
+        <v>0.2767996176091295</v>
       </c>
     </row>
   </sheetData>
